--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>MQTT Password</t>
+  </si>
+  <si>
+    <t>Device Mode</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,142 +500,146 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C27" si="0">D3+1</f>
+        <f t="shared" ref="C4:C5" si="0">D3+1</f>
         <v>104</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D27" si="1">B4+C4-1</f>
-        <v>231</v>
+        <f t="shared" ref="D4:D5" si="1">B4+C4-1</f>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5" si="2">B5+C5-1</f>
-        <v>263</v>
+        <f t="shared" si="1"/>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>32</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>264</v>
+        <f t="shared" ref="C6:C28" si="2">D5+1</f>
+        <v>232</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>295</v>
+        <f t="shared" ref="D6" si="3">B6+C6-1</f>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>32</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>296</v>
+        <f t="shared" si="2"/>
+        <v>264</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>327</v>
+        <f t="shared" ref="D5:D28" si="4">B7+C7-1</f>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>328</v>
+        <f t="shared" si="2"/>
+        <v>296</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>332</v>
+        <f t="shared" si="4"/>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>333</v>
+        <f t="shared" si="2"/>
+        <v>328</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>364</v>
+        <f t="shared" si="4"/>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>32</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>365</v>
+        <f t="shared" si="2"/>
+        <v>333</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-      <c r="J10" s="3"/>
+        <f t="shared" si="4"/>
+        <v>364</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>64</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
         <v>397</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>461</v>
-      </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -640,11 +647,11 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -652,11 +659,11 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -664,11 +671,11 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -676,11 +683,11 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -688,11 +695,11 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -700,11 +707,11 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -712,11 +719,11 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -724,11 +731,11 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -736,11 +743,11 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -748,11 +755,11 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -760,11 +767,11 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -772,11 +779,11 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -784,11 +791,11 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -796,11 +803,11 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>
@@ -808,11 +815,23 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>461</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>461</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
     </row>

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>Device Mode</t>
+  </si>
+  <si>
+    <t>Temp Correction</t>
+  </si>
+  <si>
+    <t>Temp Interval</t>
+  </si>
+  <si>
+    <t>MQTT Topic</t>
+  </si>
+  <si>
+    <t>Relay state</t>
   </si>
 </sst>
 </file>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,188 +518,204 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C5" si="0">D3+1</f>
+        <f t="shared" ref="C4" si="0">D3+1</f>
         <v>104</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="1">B4+C4-1</f>
+        <f t="shared" ref="D4" si="1">B4+C4-1</f>
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C6" si="2">D4+1</f>
         <v>105</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>231</v>
+        <f t="shared" ref="D5:D8" si="3">B5+C5-1</f>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>32</v>
-      </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C28" si="2">D5+1</f>
-        <v>232</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6" si="3">B6+C6-1</f>
-        <v>263</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="2"/>
-        <v>264</v>
+        <f t="shared" ref="C7:C8" si="4">D6+1</f>
+        <v>118</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D5:D28" si="4">B7+C7-1</f>
-        <v>295</v>
+        <f t="shared" ref="D7" si="5">B7+C7-1</f>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="2"/>
-        <v>296</v>
+        <f t="shared" si="4"/>
+        <v>119</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="4"/>
-        <v>327</v>
+        <f t="shared" si="3"/>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
-        <v>328</v>
+        <f t="shared" ref="C9:C31" si="6">D8+1</f>
+        <v>232</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>332</v>
+        <f t="shared" ref="D9" si="7">B9+C9-1</f>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>32</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="2"/>
-        <v>333</v>
+        <f t="shared" si="6"/>
+        <v>264</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="4"/>
-        <v>364</v>
+        <f t="shared" ref="D10:D31" si="8">B10+C10-1</f>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>32</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="2"/>
-        <v>365</v>
+        <f t="shared" si="6"/>
+        <v>296</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>396</v>
-      </c>
-      <c r="J11" s="3"/>
+        <f t="shared" si="8"/>
+        <v>327</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="6"/>
+        <v>328</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="8"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="6"/>
+        <v>333</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="8"/>
+        <v>396</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="8"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="2"/>
-        <v>397</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="4"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <f t="shared" si="2"/>
-        <v>461</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="4"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <f t="shared" si="2"/>
-        <v>461</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <f t="shared" si="2"/>
-        <v>461</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="4"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>32</v>
+      </c>
       <c r="C16" s="2">
-        <f t="shared" si="2"/>
-        <v>461</v>
+        <f t="shared" si="6"/>
+        <v>429</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -695,11 +723,11 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -707,11 +735,11 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -719,11 +747,11 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -731,11 +759,11 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -743,11 +771,11 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -755,11 +783,11 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -767,11 +795,11 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -779,11 +807,11 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -791,11 +819,11 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -803,11 +831,11 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -815,11 +843,11 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -827,11 +855,47 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>461</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Relay state</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Host Name</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +544,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D8" si="3">B5+C5-1</f>
+        <f t="shared" ref="D5:D10" si="3">B5+C5-1</f>
         <v>109</v>
       </c>
     </row>
@@ -566,177 +572,188 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:C8" si="4">D6+1</f>
+        <f>D6+1</f>
         <v>118</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7" si="5">B7+C7-1</f>
+        <f t="shared" ref="D7:D10" si="4">B7+C7-1</f>
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>113</v>
-      </c>
       <c r="C8" s="2">
+        <f t="shared" ref="C8:C10" si="5">D7+1</f>
+        <v>119</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="4"/>
-        <v>119</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="3"/>
-        <v>231</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:C31" si="6">D8+1</f>
-        <v>232</v>
+        <f t="shared" si="5"/>
+        <v>125</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9" si="7">B9+C9-1</f>
-        <v>263</v>
+        <f t="shared" si="4"/>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
-        <v>264</v>
+        <f t="shared" si="5"/>
+        <v>138</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D31" si="8">B10+C10-1</f>
-        <v>295</v>
+        <f t="shared" si="4"/>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>32</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
-        <v>296</v>
+        <f t="shared" ref="C11:C33" si="6">D10+1</f>
+        <v>232</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="8"/>
-        <v>327</v>
+        <f t="shared" ref="D11" si="7">B11+C11-1</f>
+        <v>263</v>
+      </c>
+      <c r="F11">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="6"/>
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="8"/>
-        <v>332</v>
+        <f t="shared" ref="D12:D33" si="8">B12+C12-1</f>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>32</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="6"/>
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="8"/>
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="6"/>
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="8"/>
-        <v>396</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>332</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>32</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="6"/>
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="8"/>
-        <v>428</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>32</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="8"/>
+        <v>396</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="6"/>
         <v>429</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2">
-        <f t="shared" si="6"/>
-        <v>461</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <f t="shared" si="6"/>
-        <v>461</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="8"/>
@@ -895,6 +912,30 @@
         <v>461</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D33" s="2">
         <f t="shared" si="8"/>
         <v>460</v>
       </c>

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Host Name</t>
+  </si>
+  <si>
+    <t>Temp present</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +474,7 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -500,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -516,7 +519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -532,7 +535,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -544,11 +547,11 @@
         <v>105</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D10" si="3">B5+C5-1</f>
+        <f t="shared" ref="D5:D6" si="3">B5+C5-1</f>
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -564,7 +567,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -576,11 +579,11 @@
         <v>118</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D10" si="4">B7+C7-1</f>
+        <f t="shared" ref="D7:D12" si="4">B7+C7-1</f>
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -588,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C10" si="5">D7+1</f>
+        <f t="shared" ref="C8:C11" si="5">D7+1</f>
         <v>119</v>
       </c>
       <c r="D8" s="2">
@@ -596,7 +599,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -612,12 +615,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -625,154 +628,158 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:C33" si="6">D10+1</f>
-        <v>232</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11" si="7">B11+C11-1</f>
-        <v>263</v>
-      </c>
-      <c r="F11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>32</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
-        <v>264</v>
+        <f t="shared" ref="C12:C34" si="6">D11+1</f>
+        <v>232</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D33" si="8">B12+C12-1</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="F12">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>32</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="6"/>
+        <v>264</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D34" si="7">B13+C13-1</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="6"/>
         <v>296</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="8"/>
+      <c r="D14" s="2">
+        <f t="shared" si="7"/>
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="6"/>
         <v>328</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="8"/>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="6"/>
-        <v>333</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="8"/>
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>32</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="6"/>
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="8"/>
-        <v>396</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>32</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="6"/>
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>32</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="7"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="6"/>
         <v>429</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <f t="shared" si="6"/>
-        <v>461</v>
-      </c>
       <c r="D19" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
@@ -780,11 +787,11 @@
         <v>461</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -792,11 +799,11 @@
         <v>461</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
@@ -804,11 +811,11 @@
         <v>461</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -816,11 +823,11 @@
         <v>461</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -828,11 +835,11 @@
         <v>461</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
@@ -840,11 +847,11 @@
         <v>461</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
@@ -852,11 +859,11 @@
         <v>461</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
@@ -864,11 +871,11 @@
         <v>461</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -876,11 +883,11 @@
         <v>461</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2">
@@ -888,11 +895,11 @@
         <v>461</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2">
@@ -900,11 +907,11 @@
         <v>461</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
@@ -912,11 +919,11 @@
         <v>461</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="8"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
@@ -924,7 +931,7 @@
         <v>461</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -936,7 +943,19 @@
         <v>461</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Device Mode</t>
   </si>
   <si>
-    <t>Temp Correction</t>
-  </si>
-  <si>
-    <t>Temp Interval</t>
-  </si>
-  <si>
     <t>MQTT Topic</t>
   </si>
   <si>
@@ -76,7 +70,16 @@
     <t>Host Name</t>
   </si>
   <si>
-    <t>Temp present</t>
+    <t>DS18B20 present</t>
+  </si>
+  <si>
+    <t>DS18B20 Correction</t>
+  </si>
+  <si>
+    <t>DS18B20 Interval</t>
+  </si>
+  <si>
+    <t>Relay state after crash</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +540,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -553,7 +556,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -579,19 +582,19 @@
         <v>118</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D12" si="4">B7+C7-1</f>
+        <f t="shared" ref="D7:D13" si="4">B7+C7-1</f>
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C11" si="5">D7+1</f>
+        <f t="shared" ref="C8:C12" si="5">D7+1</f>
         <v>119</v>
       </c>
       <c r="D8" s="2">
@@ -601,7 +604,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>13</v>
@@ -617,7 +620,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -633,10 +636,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
@@ -644,147 +647,151 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="4"/>
-        <v>231</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:C34" si="6">D11+1</f>
-        <v>232</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="4"/>
-        <v>263</v>
-      </c>
-      <c r="F12">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
-        <v>264</v>
+        <f t="shared" ref="C13:C35" si="6">D12+1</f>
+        <v>232</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D34" si="7">B13+C13-1</f>
-        <v>295</v>
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="F13">
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>32</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="6"/>
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="7"/>
-        <v>327</v>
+        <f t="shared" ref="D14:D35" si="7">B14+C14-1</f>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="6"/>
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="7"/>
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="6"/>
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="7"/>
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
         <v>32</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="6"/>
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="7"/>
-        <v>396</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>364</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
         <v>32</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="6"/>
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="7"/>
-        <v>428</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>32</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="7"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="6"/>
         <v>429</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <f t="shared" si="6"/>
-        <v>461</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="7"/>
@@ -955,6 +962,18 @@
         <v>461</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D35" s="2">
         <f t="shared" si="7"/>
         <v>460</v>
       </c>

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Relay state after crash</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +585,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D13" si="4">B7+C7-1</f>
+        <f t="shared" ref="D7:D14" si="4">B7+C7-1</f>
         <v>118</v>
       </c>
     </row>
@@ -594,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C12" si="5">D7+1</f>
+        <f t="shared" ref="C8:C13" si="5">D7+1</f>
         <v>119</v>
       </c>
       <c r="D8" s="2">
@@ -652,10 +655,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -663,147 +666,151 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="4"/>
-        <v>231</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:C35" si="6">D12+1</f>
-        <v>232</v>
+        <f t="shared" si="5"/>
+        <v>142</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="4"/>
-        <v>263</v>
-      </c>
-      <c r="F13">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>32</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
-        <v>264</v>
+        <f t="shared" ref="C14:C36" si="6">D13+1</f>
+        <v>232</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D35" si="7">B14+C14-1</f>
-        <v>295</v>
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="F14">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>32</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="6"/>
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>327</v>
+        <f t="shared" ref="D15:D36" si="7">B15+C15-1</f>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="6"/>
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="7"/>
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="6"/>
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="7"/>
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
         <v>32</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="6"/>
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="7"/>
-        <v>396</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>364</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
         <v>32</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="6"/>
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="7"/>
-        <v>428</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>32</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="7"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="6"/>
         <v>429</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <f t="shared" si="6"/>
-        <v>461</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="7"/>
@@ -974,6 +981,18 @@
         <v>461</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <f t="shared" si="6"/>
+        <v>461</v>
+      </c>
+      <c r="D36" s="2">
         <f t="shared" si="7"/>
         <v>460</v>
       </c>

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C13" si="5">D7+1</f>
+        <f t="shared" ref="C8:C12" si="5">D7+1</f>
         <v>119</v>
       </c>
       <c r="D8" s="2">
@@ -677,7 +677,7 @@
         <v>90</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f>D12+1</f>
         <v>142</v>
       </c>
       <c r="D13" s="2">

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -31,12 +31,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>OTA URL</t>
-  </si>
-  <si>
-    <t>Reserved</t>
-  </si>
-  <si>
     <t>WIFI Password</t>
   </si>
   <si>
@@ -83,6 +77,12 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t># free #</t>
+  </si>
+  <si>
+    <t>Relay state after connected to WiFI / MQTT</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,13 +163,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -469,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,24 +517,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4">
         <v>96</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <f>D2+1</f>
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <f>B3+C3-1</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -543,7 +550,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -559,7 +566,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -575,7 +582,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -585,19 +592,19 @@
         <v>118</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D14" si="4">B7+C7-1</f>
+        <f t="shared" ref="D7:D16" si="4">B7+C7-1</f>
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C12" si="5">D7+1</f>
+        <f t="shared" ref="C8:C15" si="5">D7+1</f>
         <v>119</v>
       </c>
       <c r="D8" s="2">
@@ -607,237 +614,245 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C9:C10" si="6">D8+1</f>
         <v>125</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" ref="D9" si="7">B9+C9-1</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <v>90</v>
-      </c>
-      <c r="C13" s="2">
-        <f>D12+1</f>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="4"/>
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
         <v>32</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" ref="C14:C36" si="6">D13+1</f>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:C38" si="8">D15+1</f>
         <v>232</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="6"/>
-        <v>264</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:D36" si="7">B15+C15-1</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="6"/>
-        <v>296</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="7"/>
-        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
-        <v>328</v>
+        <f t="shared" si="8"/>
+        <v>264</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="7"/>
-        <v>332</v>
+        <f t="shared" ref="D17:D38" si="9">B17+C17-1</f>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
-        <v>333</v>
+        <f t="shared" si="8"/>
+        <v>296</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="7"/>
-        <v>364</v>
+        <f t="shared" si="9"/>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
-        <v>365</v>
+        <f t="shared" si="8"/>
+        <v>328</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="7"/>
-        <v>396</v>
-      </c>
-      <c r="J19" s="3"/>
+        <f t="shared" si="9"/>
+        <v>332</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
         <v>32</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
-        <v>397</v>
+        <f t="shared" si="8"/>
+        <v>333</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="7"/>
-        <v>428</v>
+        <f t="shared" si="9"/>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2">
         <v>32</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>365</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="9"/>
+        <v>396</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="8"/>
+        <v>397</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="9"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="8"/>
         <v>429</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <f t="shared" si="6"/>
-        <v>461</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <f t="shared" si="6"/>
-        <v>461</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="7"/>
+      <c r="D23" s="4">
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -845,11 +860,11 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -857,11 +872,11 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -869,11 +884,11 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -881,11 +896,11 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -893,11 +908,11 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -905,11 +920,11 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -917,11 +932,11 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -929,11 +944,11 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -941,11 +956,11 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -953,11 +968,11 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -965,11 +980,11 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -977,11 +992,11 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
@@ -989,11 +1004,35 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>

--- a/EEPROM/memory-map.xlsx
+++ b/EEPROM/memory-map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Relay state after connected to WiFI / MQTT</t>
+  </si>
+  <si>
+    <t>Switch present</t>
+  </si>
+  <si>
+    <t>Switch GPIO#</t>
+  </si>
+  <si>
+    <t>Switch  sensitiveness</t>
+  </si>
+  <si>
+    <t>Debugger</t>
   </si>
 </sst>
 </file>
@@ -163,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +183,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -476,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +502,7 @@
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -516,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -532,7 +547,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -548,7 +563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -564,7 +579,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -580,7 +595,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -592,11 +607,11 @@
         <v>118</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D16" si="4">B7+C7-1</f>
+        <f t="shared" ref="D7:D20" si="4">B7+C7-1</f>
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -604,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C15" si="5">D7+1</f>
+        <f t="shared" ref="C8:C19" si="5">D7+1</f>
         <v>119</v>
       </c>
       <c r="D8" s="2">
@@ -612,7 +627,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -620,286 +635,302 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:C10" si="6">D8+1</f>
+        <f t="shared" ref="C9:C13" si="6">D8+1</f>
         <v>125</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9" si="7">B9+C9-1</f>
+        <f t="shared" ref="D9:D13" si="7">B9+C9-1</f>
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <f>D13+1</f>
+        <v>131</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D17" s="2">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B18" s="2">
         <v>32</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>142</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D18" s="2">
         <f t="shared" si="4"/>
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B19" s="4">
         <v>58</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C19" s="4">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D19" s="4">
         <f t="shared" si="4"/>
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B20" s="2">
         <v>32</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:C38" si="8">D15+1</f>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:C42" si="8">D19+1</f>
         <v>232</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D20" s="2">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17:D38" si="9">B17+C17-1</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="8"/>
-        <v>296</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="9"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="8"/>
-        <v>328</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="9"/>
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="8"/>
-        <v>333</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="9"/>
-        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>32</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="8"/>
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="9"/>
-        <v>396</v>
-      </c>
-      <c r="J21" s="3"/>
+        <f t="shared" ref="D21:D42" si="9">B21+C21-1</f>
+        <v>295</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>32</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="9"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="8"/>
+        <v>328</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="9"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="8"/>
+        <v>333</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="9"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="8"/>
+        <v>365</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="9"/>
+        <v>396</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="8"/>
         <v>397</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D26" s="2">
         <f t="shared" si="9"/>
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B27" s="4">
         <v>32</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C27" s="4">
         <f t="shared" si="8"/>
         <v>429</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="9"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <f t="shared" si="8"/>
-        <v>461</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="9"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <f t="shared" si="8"/>
-        <v>461</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="9"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <f t="shared" si="8"/>
-        <v>461</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="9"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <f t="shared" si="8"/>
-        <v>461</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <f t="shared" si="9"/>
         <v>460</v>
       </c>
@@ -1032,6 +1063,54 @@
         <v>461</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
+      <c r="D42" s="2">
         <f t="shared" si="9"/>
         <v>460</v>
       </c>
